--- a/Original_Excel_Files/PF-PI.xlsx
+++ b/Original_Excel_Files/PF-PI.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D031E11-E43A-4F7B-B106-D7C8C6C98AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F9E030-B50C-4D01-B959-92C71E0A7AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31965" yWindow="3180" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,17 +17,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>PG3328 .B4 1957</t>
   </si>
   <si>
-    <t>Ivanov</t>
-  </si>
-  <si>
-    <t>Vyacheslav</t>
-  </si>
-  <si>
     <t>1957 P</t>
   </si>
   <si>
@@ -37,21 +31,9 @@
     <t>PG3328 .B42 1957</t>
   </si>
   <si>
-    <t>Berdyaev</t>
-  </si>
-  <si>
-    <t>Nicholas</t>
-  </si>
-  <si>
     <t>PG3328 .S47 1966</t>
   </si>
   <si>
-    <t>Steinberg</t>
-  </si>
-  <si>
-    <t>A.</t>
-  </si>
-  <si>
     <t>1966 H</t>
   </si>
   <si>
@@ -64,12 +46,6 @@
     <t>PG3410 .S8 1961</t>
   </si>
   <si>
-    <t>Steiner</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
     <t>1961 P</t>
   </si>
   <si>
@@ -79,12 +55,6 @@
     <t>PG501 .M518 1972</t>
   </si>
   <si>
-    <t>Mihailovich</t>
-  </si>
-  <si>
-    <t>Vasa D.</t>
-  </si>
-  <si>
     <t>1972 H</t>
   </si>
   <si>
@@ -94,9 +64,6 @@
     <t>PG501 .M518 1976</t>
   </si>
   <si>
-    <t>et al.</t>
-  </si>
-  <si>
     <t>1976 H</t>
   </si>
   <si>
@@ -133,12 +100,6 @@
     <t>PG2951 .M49 1958</t>
   </si>
   <si>
-    <t>Mirsky</t>
-  </si>
-  <si>
-    <t>D.S.</t>
-  </si>
-  <si>
     <t>1958 P</t>
   </si>
   <si>
@@ -148,12 +109,6 @@
     <t>PG3347 .E8 1999</t>
   </si>
   <si>
-    <t>Pushkin</t>
-  </si>
-  <si>
-    <t>Alexander S.</t>
-  </si>
-  <si>
     <t>1999 P</t>
   </si>
   <si>
@@ -163,24 +118,12 @@
     <t>PG3415.H5 B4 1957</t>
   </si>
   <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>Isaiah</t>
-  </si>
-  <si>
     <t>The Hedgehog and the Fox</t>
   </si>
   <si>
     <t>PG3476.P27 A25 1958</t>
   </si>
   <si>
-    <t>Pasternak</t>
-  </si>
-  <si>
-    <t>Boris</t>
-  </si>
-  <si>
     <t>Safe Conduct, an Autobiography and Other Writings</t>
   </si>
   <si>
@@ -193,36 +136,24 @@
     <t>PG3286 .P46</t>
   </si>
   <si>
-    <t>ed. Richard, David</t>
-  </si>
-  <si>
     <t>The Penguin book of Russian Short Stories</t>
   </si>
   <si>
     <t>PG3326 .A16 B7</t>
   </si>
   <si>
-    <t>Brasol, Boris trans.</t>
-  </si>
-  <si>
     <t>The Diary of A Writer</t>
   </si>
   <si>
     <t>PG3326 .P7</t>
   </si>
   <si>
-    <t>Dostoevsky, Fyodor</t>
-  </si>
-  <si>
     <t>Crime and Punishment</t>
   </si>
   <si>
     <t>PG3366 .A13</t>
   </si>
   <si>
-    <t>Tolstoy, Leo</t>
-  </si>
-  <si>
     <t>The Kreutzer Sonata and other Stories</t>
   </si>
   <si>
@@ -235,88 +166,67 @@
     <t>PG3476 .E96 A25</t>
   </si>
   <si>
-    <t>Yevtushenko</t>
-  </si>
-  <si>
     <t>Selected Poems</t>
   </si>
   <si>
     <t>PG3488 .O4 O313</t>
   </si>
   <si>
-    <t>Solzhenitsyn, Alexander</t>
-  </si>
-  <si>
     <t>One Day in the Life of Ivan Denisovich</t>
   </si>
   <si>
     <t>PG3488 .O4 Z74</t>
   </si>
   <si>
-    <t>ed. Labedz, Leopold</t>
-  </si>
-  <si>
     <t>Solhenitsyn: A Documentary Record</t>
   </si>
   <si>
     <t>PG3505 .L4 B57 2007</t>
   </si>
   <si>
-    <t>Blair, Elaine</t>
-  </si>
-  <si>
     <t>Literary St. Petersburg</t>
   </si>
   <si>
     <t>PG5039.21 .U6 U5 1984</t>
   </si>
   <si>
-    <t>Kundera, Milan</t>
-  </si>
-  <si>
     <t>The Unbearable Lightness of Being</t>
   </si>
   <si>
     <t>PG7158 .J64 A26</t>
   </si>
   <si>
-    <t>Wojytla, Karol</t>
-  </si>
-  <si>
     <t>Easter Vigils and other Poems</t>
   </si>
   <si>
     <t>PH3281.K3815 S6713</t>
   </si>
   <si>
-    <t>Kertesz, Imre</t>
-  </si>
-  <si>
     <t>Fateless</t>
   </si>
   <si>
     <t>PH39 .S258</t>
   </si>
   <si>
-    <t>Santayana, George</t>
-  </si>
-  <si>
     <t>Reason In Art</t>
   </si>
   <si>
     <t>PG5039.18 .A9 V92 1986</t>
   </si>
   <si>
-    <t>Havel</t>
-  </si>
-  <si>
-    <t>Vaclav</t>
-  </si>
-  <si>
     <t>1986 P</t>
   </si>
   <si>
     <t>Living in Truth</t>
+  </si>
+  <si>
+    <t>LCC</t>
+  </si>
+  <si>
+    <t>Yr.</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -391,30 +301,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -754,591 +670,404 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I59"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="9"/>
+    <col min="3" max="3" width="64.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="B6" s="11">
+        <v>1962</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="9" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="B7" s="12">
+        <v>1981</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="B8" s="12">
+        <v>1949</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="F6" s="7">
-        <v>1962</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1981</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="13">
-        <v>1949</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="13">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="12">
         <v>1964</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G11" t="s">
+      <c r="B12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="B13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="B14" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="11">
+        <v>1993</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="12">
+        <v>1962</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="12">
+        <v>1973</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="11">
+        <v>1973</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="11">
+        <v>2007</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="B25" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="7">
-        <v>1993</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="G17" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="13">
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="11">
+        <v>1984</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="11">
+        <v>1979</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="12">
+        <v>1992</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="11">
         <v>1962</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="13">
-        <v>1973</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="7">
-        <v>1973</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="7">
-        <v>2007</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="7">
-        <v>1984</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="7">
-        <v>1979</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" s="13">
-        <v>1992</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="7">
-        <v>1962</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="8"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="8"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
+      <c r="C31" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+    </row>
+    <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+    </row>
+    <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6"/>
+    </row>
+    <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+    </row>
+    <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+    </row>
+    <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6"/>
+    </row>
+    <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I59">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E59">
     <sortCondition ref="A1:A59"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
